--- a/02-anno2_r.xlsx
+++ b/02-anno2_r.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Desktop\2022 Spring\CMPT 419\419-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="287">
   <si>
     <t>Tweet</t>
   </si>
@@ -135,7 +130,7 @@
     <t>@xBFDR yeah I'm sure it will, it's just so depressing having to talk to my parents over the phone instead of talking to them downstairs</t>
   </si>
   <si>
-    <t>| At home sick... ðŸŽ¼The bluesðŸŽ¼ won't cure it so I need ideas ðŸŽ¸ðŸˁEE­ | #sorethroat #sick #blues #music #fallweather #carletonuniversity #ottawa</t>
+    <t>| At home sick... ðŸŽ¼The bluesðŸŽ¼ won't cure it so I need ideas ðŸŽ¸ðŸˁEEEE­ | #sorethroat #sick #blues #music #fallweather #carletonuniversity #ottawa</t>
   </si>
   <si>
     <t>I wouldn't wish anxiety and depression even on the worst of people. It's not fun. #anxiety #depression</t>
@@ -150,10 +145,10 @@
     <t>come to the funeral tomorrow at 12 to mourn the death of my gpa</t>
   </si>
   <si>
-    <t>Thought I had a pretty solid GPA as a kin major and now that I look at the average for dpt programs I feel even more discouraged ðŸˁEEª</t>
-  </si>
-  <si>
-    <t>depress ðŸˁEE</t>
+    <t>Thought I had a pretty solid GPA as a kin major and now that I look at the average for dpt programs I feel even more discouraged ðŸˁEEEEª</t>
+  </si>
+  <si>
+    <t>depress ðŸˁEEEE</t>
   </si>
   <si>
     <t>Summer officially ends today. #sadness</t>
@@ -183,7 +178,7 @@
     <t>Wearing all black tomorrow as I continue to mourn the lives of the most recent victims of police brutality. #blackout #WU</t>
   </si>
   <si>
-    <t>Am I the only person who dislikes fall? #FirstDayofFall #leaves #thingsdie #depressing #cold #noflipflops ðŸ�EE��EEŽðŸEE¾ðŸ�EE��EEŽðŸEE½ðŸ�EE��EEŽðŸEE»ðŸEE�EE��EEðŸ</t>
+    <t>Am I the only person who dislikes fall? #FirstDayofFall #leaves #thingsdie #depressing #cold #noflipflops ðŸ�EEEE��EEEEŽðŸEEEE¾ðŸ�EEEE��EEEEŽðŸEEEE½ðŸ�EEEE��EEEEŽðŸEEEE»ðŸEEEE�EEEE��EEEEðŸ</t>
   </si>
   <si>
     <t>My soul is weary of fighting the battles in this world. #BlackInAmerica #WeAreNotSafe</t>
@@ -222,22 +217,22 @@
     <t>@CTV_PowerPlay @lraitt Horrid disease! My maternal grandmother and each of her sisters suffered from this affliction. It's hard on all.</t>
   </si>
   <si>
-    <t>If anybody needs me I'll be drowning my blues in a sea of whiskey ðŸEE»</t>
-  </si>
-  <si>
-    <t>@Gaychel22 @Kellee_II @seattlepi even hard facts don't seem to be sinking in... I despair ðŸˁEE©</t>
+    <t>If anybody needs me I'll be drowning my blues in a sea of whiskey ðŸEEEE»</t>
+  </si>
+  <si>
+    <t>@Gaychel22 @Kellee_II @seattlepi even hard facts don't seem to be sinking in... I despair ðŸˁEEEE©</t>
   </si>
   <si>
     <t>So depressing that it's darker so much earlier now</t>
   </si>
   <si>
-    <t>It's just begun ladies and gents. The war on racism has begun. #sadness #Segregation continues.... smh ðŸˁEE�EE��EE</t>
+    <t>It's just begun ladies and gents. The war on racism has begun. #sadness #Segregation continues.... smh ðŸˁEEEE�EEEE��EEEE</t>
   </si>
   <si>
     <t>@ily_geuly call me now I'm laying in my bed moping like I intend to do for the next 2 months.</t>
   </si>
   <si>
-    <t>Baaarissshhhhh + sad song =  prefect night â�EE�EE��EE��EE feeling alone</t>
+    <t>Baaarissshhhhh + sad song =  prefect night â�EEEE�EEEE��EEEE��EEEE feeling alone</t>
   </si>
   <si>
     <t>im so gloomy today</t>
@@ -300,7 +295,7 @@
     <t>And there is despair underneath each and every action \nEach and every attempt to pierce the armour of numbness ' -Mgla</t>
   </si>
   <si>
-    <t>One step forward, two steps backward, the link to RogerFedererShop doesnÁEE´t work.ðŸˁEE° I am losing hope about Roger Federer new Website #sadness</t>
+    <t>One step forward, two steps backward, the link to RogerFedererShop doesnÁEEEE´t work.ðŸˁEEEE° I am losing hope about Roger Federer new Website #sadness</t>
   </si>
   <si>
     <t>My friends tell me I'm pretty. Trigger tells my I'm ugly. I first was confused but then realised I'm both. Pretty ugly. #tru  #tumblr</t>
@@ -384,7 +379,7 @@
     <t>Don't wanna go to work but I want the money #sad</t>
   </si>
   <si>
-    <t>Wow the #Denver housing market is #depressing no places to buy in my range ðŸˁEE¢ #FML</t>
+    <t>Wow the #Denver housing market is #depressing no places to buy in my range ðŸˁEEEE¢ #FML</t>
   </si>
   <si>
     <t>I have not nap for 3 days in a row I'm very unhappy rn</t>
@@ -450,7 +445,7 @@
     <t>@HutchinsonDave I don't know whether to despair or agitate for a cull.</t>
   </si>
   <si>
-    <t>Can I just sulk in peace ðŸˁEE�EE��EE</t>
+    <t>Can I just sulk in peace ðŸˁEEEE�EEEE��EEEE</t>
   </si>
   <si>
     <t>It's sad when your man leaves work a little bit late and your worst fear is 'Oh no!! Did he get stopped by the police?!?! ' #sad #ourworld</t>
@@ -507,7 +502,7 @@
     <t>@JUSTICESLUT420 sadly this sort of poster died by the 90s afaik</t>
   </si>
   <si>
-    <t>@lucy_hyner @Soulboy2266 sadly not !! One less hour drinking time ðŸˁEE¢ðŸEE»</t>
+    <t>@lucy_hyner @Soulboy2266 sadly not !! One less hour drinking time ðŸˁEEEE¢ðŸEEEE»</t>
   </si>
   <si>
     <t>I was in the dark room for 58 minutes and failed every time I tried developing a photo I'm so frustrated with myself :')</t>
@@ -576,7 +571,7 @@
     <t>@WestHamUtd poor service tonight to find season ticket holders in the seats we purchased online. Forced to move further away #unhappy</t>
   </si>
   <si>
-    <t>Even a pencilâŁEEEE never #stayed  with me until it's #end âš« ðŸˁEEž</t>
+    <t>Even a pencilâŁEEEEEEEE never #stayed  with me until it's #end âš« ðŸˁEEEEž</t>
   </si>
   <si>
     <t>so gutted i dropped one of my earrings down the sink at school</t>
@@ -594,10 +589,10 @@
     <t>All the 'juniors' are now wearing purple at ollafest while I'm here fighting with my alarm about when I need to wake up for German #sadness</t>
   </si>
   <si>
-    <t>The fact I haven't had to wear a bra for a week and knowing I'll have to start wearing one again after tomorrow is depressing ðŸ�EE�EE��EE��EEðŸ�EE�EE��EE��EE</t>
-  </si>
-  <si>
-    <t>Liam is too distant makes me mourn ðŸˁEEª</t>
+    <t>The fact I haven't had to wear a bra for a week and knowing I'll have to start wearing one again after tomorrow is depressing ðŸ�EEEE�EEEE��EEEE��EEEEðŸ�EEEE�EEEE��EEEE��EEEE</t>
+  </si>
+  <si>
+    <t>Liam is too distant makes me mourn ðŸˁEEEEª</t>
   </si>
   <si>
     <t>It's now September and we're still battling a situation that was said to be handled March of this year. @ATT this is unacceptable</t>
@@ -783,7 +778,7 @@
     <t>@ChibiReviews Post series depression can be quite bad, but it will get better, I bet someone will pick the novel soon in the west.</t>
   </si>
   <si>
-    <t>@iTriborg â�EE�EE��EE��EE make him feel vigorous. 'Fine. You can kill me now.' Said Hestia with a display of only despair rather than her joyful â�EE�EE��EE��EE</t>
+    <t>@iTriborg â�EEEE�EEEE��EEEE��EEEE make him feel vigorous. 'Fine. You can kill me now.' Said Hestia with a display of only despair rather than her joyful â�EEEE�EEEE��EEEE��EEEE</t>
   </si>
   <si>
     <t>The 2nd step to beating #anxiety or #depression is realising that it's not about waiting for ...., Take action yourself now.</t>
@@ -819,7 +814,7 @@
     <t>In need of a serious nap rn</t>
   </si>
   <si>
-    <t>@JohnWildy71 something, too confused to type an entire word ðŸˁEEŁEE See, I can laugh again. My hour of sadness has almost passed</t>
+    <t>@JohnWildy71 something, too confused to type an entire word ðŸˁEEEEŁEEEE See, I can laugh again. My hour of sadness has almost passed</t>
   </si>
   <si>
     <t>Interview preparation, I hate talking about myself, one dull subject matter! #yawnoff</t>
@@ -831,7 +826,7 @@
     <t>No episode today! Whilst editing there was a power outage! We will rebuild...tomorrow #podcast #lost #editing #fail #tomorrow</t>
   </si>
   <si>
-    <t>It is a solemn thing, and no small scandal in the Kingdom, to see Godâ�EE�EE��EE�EE�s children starving while seated at the Fatherâ�EE�EE��EE�EE�s table. -AW Tozer</t>
+    <t>It is a solemn thing, and no small scandal in the Kingdom, to see Godâ�EEEE�EEEE��EEEE�EEEE�s children starving while seated at the Fatherâ�EEEE�EEEE��EEEE�EEEE�s table. -AW Tozer</t>
   </si>
   <si>
     <t>Gonna be a loooooong year as a Browns fan. Longer than normal and that's</t>
@@ -852,7 +847,7 @@
     <t>Pops are joyless, soulless toys which look nearly identical.  They are the perfect expression of consumerism.  'I enjoy this franchise'</t>
   </si>
   <si>
-    <t>Why is it that we rejoice at a birth and grieve at a funeral? It is because we are not the person involved. â�EE�EE��EE�� Mark Twain</t>
+    <t>Why is it that we rejoice at a birth and grieve at a funeral? It is because we are not the person involved. â�EEEE�EEEE��EEEE�� Mark Twain</t>
   </si>
   <si>
     <t>Regret for the things we did can be tempered by time; it is regret for the things we did not do that is inconsolable. - Sydney J. Harris</t>
@@ -880,19 +875,13 @@
   </si>
   <si>
     <t>guilty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">displeased </t>
-  </si>
-  <si>
-    <t xml:space="preserve">depressed </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -955,14 +944,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1009,7 +990,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1041,10 +1022,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1076,7 +1056,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1252,19 +1231,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156:XFD156"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="7" width="24" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1287,7 +1261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1295,7 +1269,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>0.95799999999999996</v>
+        <v>0.958</v>
       </c>
       <c r="D2" t="s">
         <v>281</v>
@@ -1310,7 +1284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1318,7 +1292,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.95799999999999996</v>
+        <v>0.958</v>
       </c>
       <c r="D3" t="s">
         <v>281</v>
@@ -1333,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1341,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>0.95799999999999996</v>
+        <v>0.958</v>
       </c>
       <c r="D4" t="s">
         <v>281</v>
@@ -1356,7 +1330,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1364,7 +1338,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.93400000000000005</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="D5" t="s">
         <v>281</v>
@@ -1379,7 +1353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1387,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>0.91700000000000004</v>
+        <v>0.917</v>
       </c>
       <c r="D6" t="s">
         <v>281</v>
@@ -1402,7 +1376,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1410,7 +1384,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>0.91700000000000004</v>
+        <v>0.917</v>
       </c>
       <c r="D7" t="s">
         <v>281</v>
@@ -1425,7 +1399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1433,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="C8">
-        <v>0.91700000000000004</v>
+        <v>0.917</v>
       </c>
       <c r="D8" t="s">
         <v>281</v>
@@ -1448,7 +1422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1456,7 +1430,7 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D9" t="s">
         <v>282</v>
@@ -1471,7 +1445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1479,7 +1453,7 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D10" t="s">
         <v>281</v>
@@ -1494,7 +1468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1502,7 +1476,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D11" t="s">
         <v>281</v>
@@ -1517,7 +1491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1525,7 +1499,7 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D12" t="s">
         <v>281</v>
@@ -1540,7 +1514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1548,7 +1522,7 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D13" t="s">
         <v>281</v>
@@ -1563,7 +1537,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1571,7 +1545,7 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D14" t="s">
         <v>281</v>
@@ -1586,7 +1560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1594,7 +1568,7 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>0.89600000000000002</v>
+        <v>0.896</v>
       </c>
       <c r="D15" t="s">
         <v>281</v>
@@ -1609,7 +1583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1617,7 +1591,7 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>0.89200000000000002</v>
+        <v>0.892</v>
       </c>
       <c r="D16" t="s">
         <v>282</v>
@@ -1632,7 +1606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1640,7 +1614,7 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>0.88800000000000001</v>
+        <v>0.888</v>
       </c>
       <c r="D17" t="s">
         <v>281</v>
@@ -1655,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1678,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1701,7 +1675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1724,7 +1698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1747,7 +1721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1755,7 +1729,7 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>0.86099999999999999</v>
+        <v>0.861</v>
       </c>
       <c r="D22" t="s">
         <v>282</v>
@@ -1770,7 +1744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1778,7 +1752,7 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>0.85399999999999998</v>
+        <v>0.854</v>
       </c>
       <c r="D23" t="s">
         <v>282</v>
@@ -1793,7 +1767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1816,7 +1790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1824,7 +1798,7 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>0.85399999999999998</v>
+        <v>0.854</v>
       </c>
       <c r="D25" t="s">
         <v>282</v>
@@ -1839,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1847,7 +1821,7 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>0.85399999999999998</v>
+        <v>0.854</v>
       </c>
       <c r="D26" t="s">
         <v>284</v>
@@ -1862,7 +1836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1870,7 +1844,7 @@
         <v>32</v>
       </c>
       <c r="C27">
-        <v>0.85399999999999998</v>
+        <v>0.854</v>
       </c>
       <c r="D27" t="s">
         <v>281</v>
@@ -1885,7 +1859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1893,7 +1867,7 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>0.83899999999999997</v>
+        <v>0.839</v>
       </c>
       <c r="D28" t="s">
         <v>281</v>
@@ -1908,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1916,7 +1890,7 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D29" t="s">
         <v>282</v>
@@ -1931,7 +1905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1939,7 +1913,7 @@
         <v>35</v>
       </c>
       <c r="C30">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D30" t="s">
         <v>281</v>
@@ -1954,7 +1928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1962,7 +1936,7 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D31" t="s">
         <v>282</v>
@@ -1977,7 +1951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1985,7 +1959,7 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D32" t="s">
         <v>281</v>
@@ -2000,7 +1974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2008,7 +1982,7 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D33" t="s">
         <v>281</v>
@@ -2023,7 +1997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2031,7 +2005,7 @@
         <v>39</v>
       </c>
       <c r="C34">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D34" t="s">
         <v>281</v>
@@ -2046,7 +2020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2054,7 +2028,7 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D35" t="s">
         <v>281</v>
@@ -2069,7 +2043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2077,7 +2051,7 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D36" t="s">
         <v>282</v>
@@ -2092,7 +2066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2100,7 +2074,7 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>0.83299999999999996</v>
+        <v>0.833</v>
       </c>
       <c r="D37" t="s">
         <v>282</v>
@@ -2115,7 +2089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2123,7 +2097,7 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>0.81200000000000006</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D38" t="s">
         <v>282</v>
@@ -2138,7 +2112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2146,7 +2120,7 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>0.81200000000000006</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D39" t="s">
         <v>281</v>
@@ -2161,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2169,7 +2143,7 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>0.81200000000000006</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D40" t="s">
         <v>282</v>
@@ -2184,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2192,7 +2166,7 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>0.81200000000000006</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D41" t="s">
         <v>282</v>
@@ -2207,7 +2181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2215,7 +2189,7 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>0.81200000000000006</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D42" t="s">
         <v>281</v>
@@ -2230,7 +2204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2238,7 +2212,7 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>0.81200000000000006</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="D43" t="s">
         <v>285</v>
@@ -2253,7 +2227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2261,7 +2235,7 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>0.80600000000000005</v>
+        <v>0.806</v>
       </c>
       <c r="D44" t="s">
         <v>282</v>
@@ -2276,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2284,7 +2258,7 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>0.79200000000000004</v>
+        <v>0.792</v>
       </c>
       <c r="D45" t="s">
         <v>281</v>
@@ -2299,7 +2273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2307,7 +2281,7 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>0.79200000000000004</v>
+        <v>0.792</v>
       </c>
       <c r="D46" t="s">
         <v>281</v>
@@ -2322,7 +2296,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2330,7 +2304,7 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>0.79200000000000004</v>
+        <v>0.792</v>
       </c>
       <c r="D47" t="s">
         <v>281</v>
@@ -2345,7 +2319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2353,7 +2327,7 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>0.77900000000000003</v>
+        <v>0.779</v>
       </c>
       <c r="D48" t="s">
         <v>284</v>
@@ -2368,7 +2342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2376,7 +2350,7 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D49" t="s">
         <v>282</v>
@@ -2391,7 +2365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2399,7 +2373,7 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D50" t="s">
         <v>282</v>
@@ -2414,7 +2388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2422,7 +2396,7 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D51" t="s">
         <v>285</v>
@@ -2437,7 +2411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2445,7 +2419,7 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D52" t="s">
         <v>281</v>
@@ -2460,7 +2434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2468,7 +2442,7 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D53" t="s">
         <v>285</v>
@@ -2483,7 +2457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2491,7 +2465,7 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D54" t="s">
         <v>282</v>
@@ -2506,7 +2480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2514,7 +2488,7 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D55" t="s">
         <v>282</v>
@@ -2529,7 +2503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2537,7 +2511,7 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D56" t="s">
         <v>284</v>
@@ -2552,7 +2526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2560,7 +2534,7 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>0.77100000000000002</v>
+        <v>0.771</v>
       </c>
       <c r="D57" t="s">
         <v>281</v>
@@ -2575,7 +2549,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2598,7 +2572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2621,7 +2595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2644,7 +2618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2667,7 +2641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2690,7 +2664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2713,7 +2687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2736,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2759,7 +2733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2782,7 +2756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2790,7 +2764,7 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D67" t="s">
         <v>283</v>
@@ -2805,7 +2779,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2813,7 +2787,7 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D68" t="s">
         <v>281</v>
@@ -2828,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2836,7 +2810,7 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D69" t="s">
         <v>281</v>
@@ -2851,7 +2825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2859,7 +2833,7 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D70" t="s">
         <v>283</v>
@@ -2874,7 +2848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2882,7 +2856,7 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D71" t="s">
         <v>282</v>
@@ -2897,7 +2871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2905,7 +2879,7 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D72" t="s">
         <v>281</v>
@@ -2920,7 +2894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2943,7 +2917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2966,7 +2940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2989,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3012,7 +2986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3035,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3058,7 +3032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3066,7 +3040,7 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>0.61799999999999999</v>
+        <v>0.618</v>
       </c>
       <c r="D79" t="s">
         <v>282</v>
@@ -3081,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3089,7 +3063,7 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="D80" t="s">
         <v>281</v>
@@ -3104,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3112,7 +3086,7 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="D81" t="s">
         <v>282</v>
@@ -3127,7 +3101,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3135,7 +3109,7 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="D82" t="s">
         <v>282</v>
@@ -3150,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3158,7 +3132,7 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="D83" t="s">
         <v>283</v>
@@ -3173,7 +3147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3181,7 +3155,7 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="D84" t="s">
         <v>282</v>
@@ -3196,7 +3170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3204,7 +3178,7 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>0.60399999999999998</v>
+        <v>0.604</v>
       </c>
       <c r="D85" t="s">
         <v>282</v>
@@ -3219,7 +3193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3227,7 +3201,7 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>0.58299999999999996</v>
+        <v>0.583</v>
       </c>
       <c r="D86" t="s">
         <v>282</v>
@@ -3242,7 +3216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3250,7 +3224,7 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>0.58299999999999996</v>
+        <v>0.583</v>
       </c>
       <c r="D87" t="s">
         <v>281</v>
@@ -3265,7 +3239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3273,7 +3247,7 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>0.58299999999999996</v>
+        <v>0.583</v>
       </c>
       <c r="D88" t="s">
         <v>282</v>
@@ -3288,7 +3262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3296,7 +3270,7 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>0.58299999999999996</v>
+        <v>0.583</v>
       </c>
       <c r="D89" t="s">
         <v>281</v>
@@ -3311,7 +3285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3319,7 +3293,7 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>0.58299999999999996</v>
+        <v>0.583</v>
       </c>
       <c r="D90" t="s">
         <v>283</v>
@@ -3334,7 +3308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3342,7 +3316,7 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>0.57499999999999996</v>
+        <v>0.575</v>
       </c>
       <c r="D91" t="s">
         <v>285</v>
@@ -3357,7 +3331,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3365,7 +3339,7 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>0.57399999999999995</v>
+        <v>0.574</v>
       </c>
       <c r="D92" t="s">
         <v>286</v>
@@ -3380,7 +3354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3388,7 +3362,7 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>0.56200000000000006</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D93" t="s">
         <v>285</v>
@@ -3403,7 +3377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3411,7 +3385,7 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>0.56200000000000006</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D94" t="s">
         <v>281</v>
@@ -3426,7 +3400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3434,7 +3408,7 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>0.56200000000000006</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D95" t="s">
         <v>282</v>
@@ -3449,7 +3423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3457,7 +3431,7 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D96" t="s">
         <v>282</v>
@@ -3472,7 +3446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3480,7 +3454,7 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D97" t="s">
         <v>282</v>
@@ -3495,7 +3469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3503,7 +3477,7 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>0.47699999999999998</v>
+        <v>0.477</v>
       </c>
       <c r="D98" t="s">
         <v>281</v>
@@ -3518,7 +3492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3526,7 +3500,7 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>0.46400000000000002</v>
+        <v>0.464</v>
       </c>
       <c r="D99" t="s">
         <v>282</v>
@@ -3541,7 +3515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3549,7 +3523,7 @@
         <v>105</v>
       </c>
       <c r="C100">
-        <v>0.46100000000000002</v>
+        <v>0.461</v>
       </c>
       <c r="D100" t="s">
         <v>282</v>
@@ -3564,7 +3538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3572,7 +3546,7 @@
         <v>106</v>
       </c>
       <c r="C101">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D101" t="s">
         <v>286</v>
@@ -3587,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3595,7 +3569,7 @@
         <v>107</v>
       </c>
       <c r="C102">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D102" t="s">
         <v>281</v>
@@ -3610,7 +3584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3618,7 +3592,7 @@
         <v>108</v>
       </c>
       <c r="C103">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D103" t="s">
         <v>282</v>
@@ -3633,7 +3607,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3641,7 +3615,7 @@
         <v>109</v>
       </c>
       <c r="C104">
-        <v>0.45800000000000002</v>
+        <v>0.458</v>
       </c>
       <c r="D104" t="s">
         <v>285</v>
@@ -3656,7 +3630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3679,7 +3653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3702,7 +3676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3710,7 +3684,7 @@
         <v>112</v>
       </c>
       <c r="C107">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D107" t="s">
         <v>282</v>
@@ -3725,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3733,7 +3707,7 @@
         <v>113</v>
       </c>
       <c r="C108">
-        <v>0.41699999999999998</v>
+        <v>0.417</v>
       </c>
       <c r="D108" t="s">
         <v>285</v>
@@ -3748,7 +3722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3756,7 +3730,7 @@
         <v>114</v>
       </c>
       <c r="C109">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D109" t="s">
         <v>285</v>
@@ -3771,7 +3745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3779,7 +3753,7 @@
         <v>115</v>
       </c>
       <c r="C110">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D110" t="s">
         <v>282</v>
@@ -3794,7 +3768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3802,7 +3776,7 @@
         <v>116</v>
       </c>
       <c r="C111">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D111" t="s">
         <v>281</v>
@@ -3817,7 +3791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3825,7 +3799,7 @@
         <v>117</v>
       </c>
       <c r="C112">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D112" t="s">
         <v>281</v>
@@ -3840,7 +3814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3848,7 +3822,7 @@
         <v>118</v>
       </c>
       <c r="C113">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D113" t="s">
         <v>285</v>
@@ -3863,7 +3837,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3871,7 +3845,7 @@
         <v>119</v>
       </c>
       <c r="C114">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D114" t="s">
         <v>282</v>
@@ -3886,7 +3860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3894,7 +3868,7 @@
         <v>120</v>
       </c>
       <c r="C115">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D115" t="s">
         <v>281</v>
@@ -3909,7 +3883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3917,7 +3891,7 @@
         <v>121</v>
       </c>
       <c r="C116">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D116" t="s">
         <v>281</v>
@@ -3932,7 +3906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3940,7 +3914,7 @@
         <v>122</v>
       </c>
       <c r="C117">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D117" t="s">
         <v>282</v>
@@ -3955,7 +3929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3963,7 +3937,7 @@
         <v>123</v>
       </c>
       <c r="C118">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D118" t="s">
         <v>282</v>
@@ -3978,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3986,7 +3960,7 @@
         <v>124</v>
       </c>
       <c r="C119">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D119" t="s">
         <v>281</v>
@@ -4001,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -4009,7 +3983,7 @@
         <v>125</v>
       </c>
       <c r="C120">
-        <v>0.72899999999999998</v>
+        <v>0.729</v>
       </c>
       <c r="D120" t="s">
         <v>282</v>
@@ -4018,13 +3992,13 @@
         <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G120">
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -4032,7 +4006,7 @@
         <v>126</v>
       </c>
       <c r="C121">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D121" t="s">
         <v>281</v>
@@ -4047,7 +4021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -4055,7 +4029,7 @@
         <v>127</v>
       </c>
       <c r="C122">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D122" t="s">
         <v>284</v>
@@ -4070,7 +4044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -4078,7 +4052,7 @@
         <v>128</v>
       </c>
       <c r="C123">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D123" t="s">
         <v>282</v>
@@ -4093,7 +4067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -4101,7 +4075,7 @@
         <v>129</v>
       </c>
       <c r="C124">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D124" t="s">
         <v>281</v>
@@ -4116,7 +4090,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -4124,7 +4098,7 @@
         <v>130</v>
       </c>
       <c r="C125">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D125" t="s">
         <v>281</v>
@@ -4133,13 +4107,13 @@
         <v>2</v>
       </c>
       <c r="F125" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G125">
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -4147,7 +4121,7 @@
         <v>131</v>
       </c>
       <c r="C126">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D126" t="s">
         <v>285</v>
@@ -4162,7 +4136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -4170,7 +4144,7 @@
         <v>132</v>
       </c>
       <c r="C127">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D127" t="s">
         <v>281</v>
@@ -4185,7 +4159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -4193,7 +4167,7 @@
         <v>133</v>
       </c>
       <c r="C128">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D128" t="s">
         <v>285</v>
@@ -4208,7 +4182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -4216,7 +4190,7 @@
         <v>134</v>
       </c>
       <c r="C129">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D129" t="s">
         <v>282</v>
@@ -4231,7 +4205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -4239,7 +4213,7 @@
         <v>135</v>
       </c>
       <c r="C130">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D130" t="s">
         <v>281</v>
@@ -4254,7 +4228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -4262,7 +4236,7 @@
         <v>136</v>
       </c>
       <c r="C131">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D131" t="s">
         <v>281</v>
@@ -4277,7 +4251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -4285,7 +4259,7 @@
         <v>137</v>
       </c>
       <c r="C132">
-        <v>0.70799999999999996</v>
+        <v>0.708</v>
       </c>
       <c r="D132" t="s">
         <v>281</v>
@@ -4300,7 +4274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4308,7 +4282,7 @@
         <v>138</v>
       </c>
       <c r="C133">
-        <v>0.68899999999999995</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="D133" t="s">
         <v>281</v>
@@ -4317,13 +4291,13 @@
         <v>1</v>
       </c>
       <c r="F133" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G133">
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4331,7 +4305,7 @@
         <v>139</v>
       </c>
       <c r="C134">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D134" t="s">
         <v>281</v>
@@ -4346,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4354,7 +4328,7 @@
         <v>140</v>
       </c>
       <c r="C135">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D135" t="s">
         <v>281</v>
@@ -4363,13 +4337,13 @@
         <v>2</v>
       </c>
       <c r="F135" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G135">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4377,7 +4351,7 @@
         <v>141</v>
       </c>
       <c r="C136">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D136" t="s">
         <v>281</v>
@@ -4392,7 +4366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4400,7 +4374,7 @@
         <v>142</v>
       </c>
       <c r="C137">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D137" t="s">
         <v>281</v>
@@ -4415,7 +4389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4423,7 +4397,7 @@
         <v>143</v>
       </c>
       <c r="C138">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D138" t="s">
         <v>281</v>
@@ -4438,7 +4412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4446,7 +4420,7 @@
         <v>144</v>
       </c>
       <c r="C139">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D139" t="s">
         <v>282</v>
@@ -4461,7 +4435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4469,7 +4443,7 @@
         <v>145</v>
       </c>
       <c r="C140">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D140" t="s">
         <v>282</v>
@@ -4478,13 +4452,13 @@
         <v>4</v>
       </c>
       <c r="F140" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G140">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4492,7 +4466,7 @@
         <v>146</v>
       </c>
       <c r="C141">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D141" t="s">
         <v>282</v>
@@ -4501,13 +4475,13 @@
         <v>3</v>
       </c>
       <c r="F141" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G141">
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4515,7 +4489,7 @@
         <v>147</v>
       </c>
       <c r="C142">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D142" t="s">
         <v>285</v>
@@ -4530,7 +4504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4538,7 +4512,7 @@
         <v>148</v>
       </c>
       <c r="C143">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D143" t="s">
         <v>282</v>
@@ -4553,7 +4527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4561,7 +4535,7 @@
         <v>149</v>
       </c>
       <c r="C144">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D144" t="s">
         <v>282</v>
@@ -4576,7 +4550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4584,7 +4558,7 @@
         <v>150</v>
       </c>
       <c r="C145">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D145" t="s">
         <v>282</v>
@@ -4599,7 +4573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4607,7 +4581,7 @@
         <v>151</v>
       </c>
       <c r="C146">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D146" t="s">
         <v>281</v>
@@ -4622,7 +4596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4630,7 +4604,7 @@
         <v>152</v>
       </c>
       <c r="C147">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D147" t="s">
         <v>281</v>
@@ -4645,7 +4619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4653,7 +4627,7 @@
         <v>153</v>
       </c>
       <c r="C148">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D148" t="s">
         <v>282</v>
@@ -4668,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4676,7 +4650,7 @@
         <v>154</v>
       </c>
       <c r="C149">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D149" t="s">
         <v>285</v>
@@ -4691,7 +4665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4699,7 +4673,7 @@
         <v>155</v>
       </c>
       <c r="C150">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D150" t="s">
         <v>282</v>
@@ -4714,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4722,7 +4696,7 @@
         <v>156</v>
       </c>
       <c r="C151">
-        <v>0.68799999999999994</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="D151" t="s">
         <v>282</v>
@@ -4737,7 +4711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4760,7 +4734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4783,7 +4757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4791,7 +4765,7 @@
         <v>159</v>
       </c>
       <c r="C154">
-        <v>0.67500000000000004</v>
+        <v>0.675</v>
       </c>
       <c r="D154" t="s">
         <v>281</v>
@@ -4806,7 +4780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4829,7 +4803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4837,7 +4811,7 @@
         <v>161</v>
       </c>
       <c r="C156">
-        <v>0.66900000000000004</v>
+        <v>0.669</v>
       </c>
       <c r="D156" t="s">
         <v>281</v>
@@ -4852,7 +4826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4860,7 +4834,7 @@
         <v>162</v>
       </c>
       <c r="C157">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D157" t="s">
         <v>281</v>
@@ -4869,13 +4843,13 @@
         <v>3</v>
       </c>
       <c r="F157" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G157">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4883,7 +4857,7 @@
         <v>163</v>
       </c>
       <c r="C158">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D158" t="s">
         <v>282</v>
@@ -4898,7 +4872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4906,7 +4880,7 @@
         <v>164</v>
       </c>
       <c r="C159">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D159" t="s">
         <v>283</v>
@@ -4921,7 +4895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4929,7 +4903,7 @@
         <v>165</v>
       </c>
       <c r="C160">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D160" t="s">
         <v>284</v>
@@ -4944,7 +4918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4952,7 +4926,7 @@
         <v>166</v>
       </c>
       <c r="C161">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D161" t="s">
         <v>285</v>
@@ -4961,13 +4935,13 @@
         <v>2</v>
       </c>
       <c r="F161" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G161">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4975,7 +4949,7 @@
         <v>167</v>
       </c>
       <c r="C162">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D162" t="s">
         <v>285</v>
@@ -4990,7 +4964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4998,7 +4972,7 @@
         <v>168</v>
       </c>
       <c r="C163">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D163" t="s">
         <v>282</v>
@@ -5013,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -5021,7 +4995,7 @@
         <v>169</v>
       </c>
       <c r="C164">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D164" t="s">
         <v>282</v>
@@ -5036,7 +5010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -5044,7 +5018,7 @@
         <v>170</v>
       </c>
       <c r="C165">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D165" t="s">
         <v>281</v>
@@ -5059,7 +5033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -5067,7 +5041,7 @@
         <v>171</v>
       </c>
       <c r="C166">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D166" t="s">
         <v>282</v>
@@ -5082,7 +5056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -5090,7 +5064,7 @@
         <v>172</v>
       </c>
       <c r="C167">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D167" t="s">
         <v>282</v>
@@ -5105,7 +5079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -5113,7 +5087,7 @@
         <v>173</v>
       </c>
       <c r="C168">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D168" t="s">
         <v>281</v>
@@ -5128,7 +5102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -5136,7 +5110,7 @@
         <v>174</v>
       </c>
       <c r="C169">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D169" t="s">
         <v>281</v>
@@ -5151,7 +5125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -5159,7 +5133,7 @@
         <v>175</v>
       </c>
       <c r="C170">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D170" t="s">
         <v>281</v>
@@ -5174,7 +5148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5182,7 +5156,7 @@
         <v>176</v>
       </c>
       <c r="C171">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D171" t="s">
         <v>281</v>
@@ -5197,7 +5171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5205,7 +5179,7 @@
         <v>177</v>
       </c>
       <c r="C172">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D172" t="s">
         <v>281</v>
@@ -5214,13 +5188,13 @@
         <v>4</v>
       </c>
       <c r="F172" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G172">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5228,7 +5202,7 @@
         <v>178</v>
       </c>
       <c r="C173">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D173" t="s">
         <v>285</v>
@@ -5237,13 +5211,13 @@
         <v>2</v>
       </c>
       <c r="F173" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G173">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5251,7 +5225,7 @@
         <v>179</v>
       </c>
       <c r="C174">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D174" t="s">
         <v>285</v>
@@ -5266,7 +5240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5274,7 +5248,7 @@
         <v>180</v>
       </c>
       <c r="C175">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D175" t="s">
         <v>282</v>
@@ -5289,7 +5263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5297,7 +5271,7 @@
         <v>181</v>
       </c>
       <c r="C176">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D176" t="s">
         <v>281</v>
@@ -5312,7 +5286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5320,7 +5294,7 @@
         <v>182</v>
       </c>
       <c r="C177">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D177" t="s">
         <v>281</v>
@@ -5335,7 +5309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5343,7 +5317,7 @@
         <v>183</v>
       </c>
       <c r="C178">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D178" t="s">
         <v>281</v>
@@ -5358,7 +5332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5366,7 +5340,7 @@
         <v>184</v>
       </c>
       <c r="C179">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D179" t="s">
         <v>282</v>
@@ -5381,7 +5355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5389,7 +5363,7 @@
         <v>185</v>
       </c>
       <c r="C180">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D180" t="s">
         <v>283</v>
@@ -5404,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5412,7 +5386,7 @@
         <v>186</v>
       </c>
       <c r="C181">
-        <v>0.66700000000000004</v>
+        <v>0.667</v>
       </c>
       <c r="D181" t="s">
         <v>282</v>
@@ -5427,7 +5401,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5435,7 +5409,7 @@
         <v>187</v>
       </c>
       <c r="C182">
-        <v>0.66100000000000003</v>
+        <v>0.661</v>
       </c>
       <c r="D182" t="s">
         <v>281</v>
@@ -5450,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5458,7 +5432,7 @@
         <v>188</v>
       </c>
       <c r="C183">
-        <v>0.65400000000000003</v>
+        <v>0.654</v>
       </c>
       <c r="D183" t="s">
         <v>284</v>
@@ -5473,7 +5447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5481,7 +5455,7 @@
         <v>189</v>
       </c>
       <c r="C184">
-        <v>0.65300000000000002</v>
+        <v>0.653</v>
       </c>
       <c r="D184" t="s">
         <v>281</v>
@@ -5496,7 +5470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5504,7 +5478,7 @@
         <v>190</v>
       </c>
       <c r="C185">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D185" t="s">
         <v>281</v>
@@ -5519,7 +5493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5527,7 +5501,7 @@
         <v>191</v>
       </c>
       <c r="C186">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D186" t="s">
         <v>282</v>
@@ -5542,7 +5516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5550,7 +5524,7 @@
         <v>192</v>
       </c>
       <c r="C187">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D187" t="s">
         <v>283</v>
@@ -5565,7 +5539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5573,7 +5547,7 @@
         <v>193</v>
       </c>
       <c r="C188">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D188" t="s">
         <v>282</v>
@@ -5588,7 +5562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5596,7 +5570,7 @@
         <v>194</v>
       </c>
       <c r="C189">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D189" t="s">
         <v>281</v>
@@ -5611,7 +5585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5619,7 +5593,7 @@
         <v>195</v>
       </c>
       <c r="C190">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D190" t="s">
         <v>282</v>
@@ -5634,7 +5608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5642,7 +5616,7 @@
         <v>196</v>
       </c>
       <c r="C191">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D191" t="s">
         <v>281</v>
@@ -5651,13 +5625,13 @@
         <v>1</v>
       </c>
       <c r="F191" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G191">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5665,7 +5639,7 @@
         <v>197</v>
       </c>
       <c r="C192">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D192" t="s">
         <v>281</v>
@@ -5680,7 +5654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5688,7 +5662,7 @@
         <v>198</v>
       </c>
       <c r="C193">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D193" t="s">
         <v>282</v>
@@ -5703,7 +5677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5711,7 +5685,7 @@
         <v>199</v>
       </c>
       <c r="C194">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D194" t="s">
         <v>283</v>
@@ -5726,7 +5700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5734,7 +5708,7 @@
         <v>200</v>
       </c>
       <c r="C195">
-        <v>0.64600000000000002</v>
+        <v>0.646</v>
       </c>
       <c r="D195" t="s">
         <v>282</v>
@@ -5743,13 +5717,13 @@
         <v>1</v>
       </c>
       <c r="F195" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G195">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5766,13 +5740,13 @@
         <v>3</v>
       </c>
       <c r="F196" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G196">
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5780,7 +5754,7 @@
         <v>202</v>
       </c>
       <c r="C197">
-        <v>0.56200000000000006</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D197" t="s">
         <v>282</v>
@@ -5795,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5803,7 +5777,7 @@
         <v>203</v>
       </c>
       <c r="C198">
-        <v>0.56200000000000006</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D198" t="s">
         <v>281</v>
@@ -5818,7 +5792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5826,7 +5800,7 @@
         <v>204</v>
       </c>
       <c r="C199">
-        <v>0.56200000000000006</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="D199" t="s">
         <v>281</v>
@@ -5835,13 +5809,13 @@
         <v>2</v>
       </c>
       <c r="F199" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G199">
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5849,7 +5823,7 @@
         <v>205</v>
       </c>
       <c r="C200">
-        <v>0.56100000000000005</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="D200" t="s">
         <v>281</v>
@@ -5858,13 +5832,13 @@
         <v>3</v>
       </c>
       <c r="F200" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G200">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5872,7 +5846,7 @@
         <v>206</v>
       </c>
       <c r="C201">
-        <v>0.54800000000000004</v>
+        <v>0.548</v>
       </c>
       <c r="D201" t="s">
         <v>282</v>
@@ -5881,13 +5855,13 @@
         <v>4</v>
       </c>
       <c r="F201" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="G201">
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5895,7 +5869,7 @@
         <v>207</v>
       </c>
       <c r="C202">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D202" t="s">
         <v>281</v>
@@ -5910,7 +5884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5918,7 +5892,7 @@
         <v>208</v>
       </c>
       <c r="C203">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D203" t="s">
         <v>282</v>
@@ -5933,7 +5907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5941,7 +5915,7 @@
         <v>209</v>
       </c>
       <c r="C204">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D204" t="s">
         <v>282</v>
@@ -5956,7 +5930,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5964,7 +5938,7 @@
         <v>210</v>
       </c>
       <c r="C205">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D205" t="s">
         <v>282</v>
@@ -5979,7 +5953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5987,7 +5961,7 @@
         <v>211</v>
       </c>
       <c r="C206">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D206" t="s">
         <v>282</v>
@@ -6002,7 +5976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -6010,7 +5984,7 @@
         <v>212</v>
       </c>
       <c r="C207">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D207" t="s">
         <v>282</v>
@@ -6025,7 +5999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -6033,7 +6007,7 @@
         <v>213</v>
       </c>
       <c r="C208">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D208" t="s">
         <v>284</v>
@@ -6048,7 +6022,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -6056,7 +6030,7 @@
         <v>214</v>
       </c>
       <c r="C209">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D209" t="s">
         <v>281</v>
@@ -6071,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -6079,7 +6053,7 @@
         <v>215</v>
       </c>
       <c r="C210">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D210" t="s">
         <v>282</v>
@@ -6094,7 +6068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -6102,7 +6076,7 @@
         <v>216</v>
       </c>
       <c r="C211">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D211" t="s">
         <v>282</v>
@@ -6117,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -6125,7 +6099,7 @@
         <v>217</v>
       </c>
       <c r="C212">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D212" t="s">
         <v>285</v>
@@ -6140,7 +6114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -6148,7 +6122,7 @@
         <v>218</v>
       </c>
       <c r="C213">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D213" t="s">
         <v>282</v>
@@ -6163,7 +6137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6171,7 +6145,7 @@
         <v>219</v>
       </c>
       <c r="C214">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D214" t="s">
         <v>282</v>
@@ -6186,7 +6160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6194,7 +6168,7 @@
         <v>220</v>
       </c>
       <c r="C215">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D215" t="s">
         <v>282</v>
@@ -6209,7 +6183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6217,7 +6191,7 @@
         <v>221</v>
       </c>
       <c r="C216">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D216" t="s">
         <v>281</v>
@@ -6232,7 +6206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6240,7 +6214,7 @@
         <v>222</v>
       </c>
       <c r="C217">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D217" t="s">
         <v>285</v>
@@ -6255,7 +6229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6263,7 +6237,7 @@
         <v>223</v>
       </c>
       <c r="C218">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D218" t="s">
         <v>281</v>
@@ -6278,7 +6252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6286,7 +6260,7 @@
         <v>224</v>
       </c>
       <c r="C219">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D219" t="s">
         <v>282</v>
@@ -6301,7 +6275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -6309,7 +6283,7 @@
         <v>225</v>
       </c>
       <c r="C220">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D220" t="s">
         <v>283</v>
@@ -6324,7 +6298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -6332,7 +6306,7 @@
         <v>226</v>
       </c>
       <c r="C221">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D221" t="s">
         <v>285</v>
@@ -6347,7 +6321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -6355,7 +6329,7 @@
         <v>227</v>
       </c>
       <c r="C222">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D222" t="s">
         <v>281</v>
@@ -6370,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -6378,7 +6352,7 @@
         <v>228</v>
       </c>
       <c r="C223">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D223" t="s">
         <v>285</v>
@@ -6393,7 +6367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -6401,7 +6375,7 @@
         <v>229</v>
       </c>
       <c r="C224">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D224" t="s">
         <v>281</v>
@@ -6416,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -6424,7 +6398,7 @@
         <v>230</v>
       </c>
       <c r="C225">
-        <v>0.54200000000000004</v>
+        <v>0.542</v>
       </c>
       <c r="D225" t="s">
         <v>282</v>
@@ -6439,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -6447,7 +6421,7 @@
         <v>231</v>
       </c>
       <c r="C226">
-        <v>0.54100000000000004</v>
+        <v>0.541</v>
       </c>
       <c r="D226" t="s">
         <v>282</v>
@@ -6462,7 +6436,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -6470,7 +6444,7 @@
         <v>232</v>
       </c>
       <c r="C227">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D227" t="s">
         <v>282</v>
@@ -6485,7 +6459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -6493,7 +6467,7 @@
         <v>233</v>
       </c>
       <c r="C228">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D228" t="s">
         <v>281</v>
@@ -6508,7 +6482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -6516,7 +6490,7 @@
         <v>234</v>
       </c>
       <c r="C229">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D229" t="s">
         <v>282</v>
@@ -6531,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -6539,7 +6513,7 @@
         <v>235</v>
       </c>
       <c r="C230">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D230" t="s">
         <v>281</v>
@@ -6554,7 +6528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -6562,7 +6536,7 @@
         <v>236</v>
       </c>
       <c r="C231">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D231" t="s">
         <v>281</v>
@@ -6577,7 +6551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -6585,7 +6559,7 @@
         <v>237</v>
       </c>
       <c r="C232">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D232" t="s">
         <v>285</v>
@@ -6600,7 +6574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -6608,7 +6582,7 @@
         <v>238</v>
       </c>
       <c r="C233">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D233" t="s">
         <v>281</v>
@@ -6623,7 +6597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -6631,7 +6605,7 @@
         <v>239</v>
       </c>
       <c r="C234">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D234" t="s">
         <v>281</v>
@@ -6646,7 +6620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -6654,7 +6628,7 @@
         <v>240</v>
       </c>
       <c r="C235">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D235" t="s">
         <v>281</v>
@@ -6669,7 +6643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -6677,7 +6651,7 @@
         <v>241</v>
       </c>
       <c r="C236">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D236" t="s">
         <v>281</v>
@@ -6692,7 +6666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -6700,7 +6674,7 @@
         <v>242</v>
       </c>
       <c r="C237">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D237" t="s">
         <v>282</v>
@@ -6715,7 +6689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -6723,7 +6697,7 @@
         <v>243</v>
       </c>
       <c r="C238">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D238" t="s">
         <v>281</v>
@@ -6738,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -6746,7 +6720,7 @@
         <v>244</v>
       </c>
       <c r="C239">
-        <v>0.52100000000000002</v>
+        <v>0.521</v>
       </c>
       <c r="D239" t="s">
         <v>282</v>
@@ -6761,7 +6735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -6784,7 +6758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -6792,7 +6766,7 @@
         <v>246</v>
       </c>
       <c r="C241">
-        <v>0.50900000000000001</v>
+        <v>0.509</v>
       </c>
       <c r="D241" t="s">
         <v>281</v>
@@ -6807,7 +6781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -6830,7 +6804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -6853,7 +6827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -6876,7 +6850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -6899,7 +6873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -6922,7 +6896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -6945,7 +6919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -6968,7 +6942,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -6991,7 +6965,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -7014,7 +6988,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -7022,7 +6996,7 @@
         <v>256</v>
       </c>
       <c r="C251">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D251" t="s">
         <v>282</v>
@@ -7037,7 +7011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -7045,7 +7019,7 @@
         <v>257</v>
       </c>
       <c r="C252">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D252" t="s">
         <v>282</v>
@@ -7060,7 +7034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -7068,7 +7042,7 @@
         <v>258</v>
       </c>
       <c r="C253">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D253" t="s">
         <v>282</v>
@@ -7083,7 +7057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -7091,7 +7065,7 @@
         <v>259</v>
       </c>
       <c r="C254">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D254" t="s">
         <v>281</v>
@@ -7106,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -7114,7 +7088,7 @@
         <v>260</v>
       </c>
       <c r="C255">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D255" t="s">
         <v>281</v>
@@ -7129,7 +7103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -7137,7 +7111,7 @@
         <v>261</v>
       </c>
       <c r="C256">
-        <v>0.47899999999999998</v>
+        <v>0.479</v>
       </c>
       <c r="D256" t="s">
         <v>285</v>
@@ -7152,7 +7126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -7160,7 +7134,7 @@
         <v>262</v>
       </c>
       <c r="C257">
-        <v>0.41499999999999998</v>
+        <v>0.415</v>
       </c>
       <c r="D257" t="s">
         <v>282</v>
@@ -7175,7 +7149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -7183,7 +7157,7 @@
         <v>263</v>
       </c>
       <c r="C258">
-        <v>0.39700000000000002</v>
+        <v>0.397</v>
       </c>
       <c r="D258" t="s">
         <v>282</v>
@@ -7198,7 +7172,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -7206,7 +7180,7 @@
         <v>264</v>
       </c>
       <c r="C259">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D259" t="s">
         <v>282</v>
@@ -7221,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -7229,7 +7203,7 @@
         <v>265</v>
       </c>
       <c r="C260">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D260" t="s">
         <v>281</v>
@@ -7244,7 +7218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -7252,7 +7226,7 @@
         <v>266</v>
       </c>
       <c r="C261">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D261" t="s">
         <v>281</v>
@@ -7267,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -7275,7 +7249,7 @@
         <v>267</v>
       </c>
       <c r="C262">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D262" t="s">
         <v>282</v>
@@ -7290,7 +7264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -7298,7 +7272,7 @@
         <v>268</v>
       </c>
       <c r="C263">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D263" t="s">
         <v>282</v>
@@ -7313,7 +7287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -7321,7 +7295,7 @@
         <v>269</v>
       </c>
       <c r="C264">
-        <v>0.39600000000000002</v>
+        <v>0.396</v>
       </c>
       <c r="D264" t="s">
         <v>282</v>
@@ -7336,7 +7310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -7359,7 +7333,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -7382,7 +7356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -7405,7 +7379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -7428,7 +7402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -7451,7 +7425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -7474,7 +7448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -7482,7 +7456,7 @@
         <v>276</v>
       </c>
       <c r="C271">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D271" t="s">
         <v>282</v>
@@ -7497,7 +7471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -7505,7 +7479,7 @@
         <v>277</v>
       </c>
       <c r="C272">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D272" t="s">
         <v>281</v>
@@ -7520,7 +7494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -7528,7 +7502,7 @@
         <v>278</v>
       </c>
       <c r="C273">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D273" t="s">
         <v>285</v>
@@ -7543,7 +7517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -7551,7 +7525,7 @@
         <v>279</v>
       </c>
       <c r="C274">
-        <v>0.35399999999999998</v>
+        <v>0.354</v>
       </c>
       <c r="D274" t="s">
         <v>281</v>
@@ -7566,7 +7540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -7574,7 +7548,7 @@
         <v>280</v>
       </c>
       <c r="C275">
-        <v>0.33300000000000002</v>
+        <v>0.333</v>
       </c>
       <c r="D275" t="s">
         <v>281</v>
